--- a/data/input/2019-10-01_Baechu_wholesale.xlsx
+++ b/data/input/2019-10-01_Baechu_wholesale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="2019-10-01_Baechu_wholesale" sheetId="2" r:id="rId1"/>

--- a/data/input/2019-10-01_Baechu_wholesale.xlsx
+++ b/data/input/2019-10-01_Baechu_wholesale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="14205" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="2019-10-01_Baechu_wholesale" sheetId="2" r:id="rId1"/>
